--- a/Table 1 - Shipboard surveys/Table 1 - Howell-et-al-Submit.xlsx
+++ b/Table 1 - Shipboard surveys/Table 1 - Howell-et-al-Submit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25640" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25720" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
